--- a/Code/Results/Cases/Case_5_92/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_92/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8106344575419939</v>
+        <v>0.2573958041829485</v>
       </c>
       <c r="C2">
-        <v>0.1442997653453091</v>
+        <v>0.04748089165519787</v>
       </c>
       <c r="D2">
-        <v>0.06478587521068135</v>
+        <v>0.03165052555380043</v>
       </c>
       <c r="E2">
-        <v>0.3346069581480506</v>
+        <v>0.1647267180267775</v>
       </c>
       <c r="F2">
-        <v>0.4883944379069405</v>
+        <v>0.7170521533020491</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,25 +442,25 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2833240738151126</v>
+        <v>0.5570539027569694</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9032083157732984</v>
+        <v>0.2750332023945532</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5958672098962694</v>
+        <v>0.2202528939603283</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.429004397062926</v>
+        <v>2.47108682482488</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.708095458672318</v>
+        <v>0.2256133626909502</v>
       </c>
       <c r="C3">
-        <v>0.1281501674124854</v>
+        <v>0.04230195993055474</v>
       </c>
       <c r="D3">
-        <v>0.05868340956607199</v>
+        <v>0.02950460241036978</v>
       </c>
       <c r="E3">
-        <v>0.2914463619981333</v>
+        <v>0.1539407558026511</v>
       </c>
       <c r="F3">
-        <v>0.4639746625625776</v>
+        <v>0.7163095727575524</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,25 +489,25 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2858142966784492</v>
+        <v>0.5619326161867093</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7911944337375445</v>
+        <v>0.2399888997756108</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5157696186092195</v>
+        <v>0.1977350549761994</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.395457382034209</v>
+        <v>2.48182013221161</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6451479778390024</v>
+        <v>0.2060647825605599</v>
       </c>
       <c r="C4">
-        <v>0.1182319794955333</v>
+        <v>0.03910215581566945</v>
       </c>
       <c r="D4">
-        <v>0.0549217622044651</v>
+        <v>0.02817525147519007</v>
       </c>
       <c r="E4">
-        <v>0.2654630942990579</v>
+        <v>0.1474358730611982</v>
       </c>
       <c r="F4">
-        <v>0.4499975487052055</v>
+        <v>0.7163156781840101</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,25 +536,25 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2880199145762745</v>
+        <v>0.5652477437201071</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7224180744163675</v>
+        <v>0.2184091649826883</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4669807259519274</v>
+        <v>0.1839742000649309</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.378138885153419</v>
+        <v>2.489921163682126</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.619490998493859</v>
+        <v>0.1980904729067561</v>
       </c>
       <c r="C5">
-        <v>0.1141880377864481</v>
+        <v>0.03779324701719133</v>
       </c>
       <c r="D5">
-        <v>0.05338490168120558</v>
+        <v>0.02763060759723857</v>
       </c>
       <c r="E5">
-        <v>0.2549910160279083</v>
+        <v>0.1448144618964307</v>
       </c>
       <c r="F5">
-        <v>0.4445437462667314</v>
+        <v>0.7164343057102371</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,25 +583,25 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2890817324957382</v>
+        <v>0.5666789925480202</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6943817810372792</v>
+        <v>0.209600014440511</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4471825752448808</v>
+        <v>0.1783829147458462</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.37186561113603</v>
+        <v>2.493602034970607</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6152301177973527</v>
+        <v>0.1967658687569269</v>
       </c>
       <c r="C6">
-        <v>0.1135163658493354</v>
+        <v>0.03757560534639026</v>
       </c>
       <c r="D6">
-        <v>0.05312946082091941</v>
+        <v>0.02753999429141629</v>
       </c>
       <c r="E6">
-        <v>0.2532587717790875</v>
+        <v>0.1443809465395418</v>
       </c>
       <c r="F6">
-        <v>0.4436523746383756</v>
+        <v>0.7164610168747743</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,25 +630,25 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.289267690179706</v>
+        <v>0.5669214991463178</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6897255428465883</v>
+        <v>0.2081363550997395</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4438997504323083</v>
+        <v>0.1774554746049688</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.370870154021929</v>
+        <v>2.494236162507875</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.644801991262284</v>
+        <v>0.205957270444344</v>
       </c>
       <c r="C7">
-        <v>0.1181774524682311</v>
+        <v>0.0390845234457089</v>
       </c>
       <c r="D7">
-        <v>0.05490105192519934</v>
+        <v>0.02816791801008378</v>
       </c>
       <c r="E7">
-        <v>0.2653214109155329</v>
+        <v>0.1474004011274275</v>
       </c>
       <c r="F7">
-        <v>0.4499230346167735</v>
+        <v>0.7163168078560176</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,25 +677,25 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2880335837642036</v>
+        <v>0.5652667209518363</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.722040017257882</v>
+        <v>0.2182904227716733</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.466713400995225</v>
+        <v>0.183898727756663</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.378051158616557</v>
+        <v>2.489969268410391</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7752713268213256</v>
+        <v>0.2464445435215623</v>
       </c>
       <c r="C8">
-        <v>0.1387308376948795</v>
+        <v>0.04569935633921318</v>
       </c>
       <c r="D8">
-        <v>0.062684633956124</v>
+        <v>0.03091306692999041</v>
       </c>
       <c r="E8">
-        <v>0.3196091913968928</v>
+        <v>0.1609831416518759</v>
       </c>
       <c r="F8">
-        <v>0.4797550249862326</v>
+        <v>0.7167001816052831</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,25 +724,25 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2840378713905949</v>
+        <v>0.5586697228257513</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8645798545744015</v>
+        <v>0.2629631383053095</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5681592060076923</v>
+        <v>0.2124751952889241</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.416731692892625</v>
+        <v>2.47447396015481</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.031630476976744</v>
+        <v>0.3255538798997577</v>
       </c>
       <c r="C9">
-        <v>0.1790986287225707</v>
+        <v>0.0585115465522108</v>
       </c>
       <c r="D9">
-        <v>0.07784486549473257</v>
+        <v>0.03620197935646985</v>
       </c>
       <c r="E9">
-        <v>0.4308441623087234</v>
+        <v>0.1885647269041755</v>
       </c>
       <c r="F9">
-        <v>0.5469775508823957</v>
+        <v>0.7211214530595029</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,25 +771,25 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2819105364855581</v>
+        <v>0.5482712584070732</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.144577412892801</v>
+        <v>0.3500553480227211</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7709149567945204</v>
+        <v>0.2690345788772603</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.520542916039233</v>
+        <v>2.456088234992507</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.220922732932621</v>
+        <v>0.3834852254437351</v>
       </c>
       <c r="C10">
-        <v>0.208918421600373</v>
+        <v>0.06782640898630632</v>
       </c>
       <c r="D10">
-        <v>0.0889410735415197</v>
+        <v>0.04002908673394501</v>
       </c>
       <c r="E10">
-        <v>0.5164894690279738</v>
+        <v>0.209423772210684</v>
       </c>
       <c r="F10">
-        <v>0.6026534837946329</v>
+        <v>0.7266129998833364</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,25 +818,25 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2843286997649166</v>
+        <v>0.5421825645107212</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.351305216096137</v>
+        <v>0.4137155257720053</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9232881916636941</v>
+        <v>0.3109158923864612</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.616727541132491</v>
+        <v>2.449917869584255</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.307395377769524</v>
+        <v>0.4097953787275515</v>
       </c>
       <c r="C11">
-        <v>0.2225493498464886</v>
+        <v>0.07204248513632194</v>
       </c>
       <c r="D11">
-        <v>0.0939850052839688</v>
+        <v>0.04175717666011991</v>
       </c>
       <c r="E11">
-        <v>0.5565484736794062</v>
+        <v>0.2190463014861095</v>
       </c>
       <c r="F11">
-        <v>0.6295787500698253</v>
+        <v>0.7295997812107515</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2864128588936445</v>
+        <v>0.5397502699874579</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.445746051884385</v>
+        <v>0.4426025116471521</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.993608314054228</v>
+        <v>0.3300421186969089</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.66549513438369</v>
+        <v>2.44870900046152</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.340205944143207</v>
+        <v>0.4197517723564204</v>
       </c>
       <c r="C12">
-        <v>0.2277231618549536</v>
+        <v>0.07363590661043418</v>
       </c>
       <c r="D12">
-        <v>0.09589490249291543</v>
+        <v>0.04240968049538907</v>
       </c>
       <c r="E12">
-        <v>0.571898048020806</v>
+        <v>0.2227096001106261</v>
       </c>
       <c r="F12">
-        <v>0.640025198024972</v>
+        <v>0.7308011475503307</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,25 +912,25 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.28735438112124</v>
+        <v>0.5388778192227974</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.481581169409594</v>
+        <v>0.4535304850826378</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.020404718078431</v>
+        <v>0.337295482299254</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.68474481461584</v>
+        <v>2.448481378540038</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.33313647974407</v>
+        <v>0.4176077902124007</v>
       </c>
       <c r="C13">
-        <v>0.2266083076982426</v>
+        <v>0.07329287415457486</v>
       </c>
       <c r="D13">
-        <v>0.09548357079820136</v>
+        <v>0.04226923655649273</v>
       </c>
       <c r="E13">
-        <v>0.5685838594824446</v>
+        <v>0.221919774128267</v>
       </c>
       <c r="F13">
-        <v>0.6377638853485053</v>
+        <v>0.7305392824520993</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,25 +959,25 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.28714465380137</v>
+        <v>0.5390635541027606</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.4738599629014</v>
+        <v>0.4511774432108382</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.014625783990574</v>
+        <v>0.335732865720793</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.680563220549999</v>
+        <v>2.448520159407053</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.310093336309421</v>
+        <v>0.4106146341191845</v>
       </c>
       <c r="C14">
-        <v>0.2229747446635599</v>
+        <v>0.07217363960657508</v>
       </c>
       <c r="D14">
-        <v>0.0941421337965096</v>
+        <v>0.04181089654310455</v>
       </c>
       <c r="E14">
-        <v>0.557807549303142</v>
+        <v>0.219347291987475</v>
       </c>
       <c r="F14">
-        <v>0.6304330428766107</v>
+        <v>0.7296972082863675</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,25 +1006,25 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.2864872016463416</v>
+        <v>0.5396775183547504</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.448692686903087</v>
+        <v>0.4435017839175828</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9958093694777901</v>
+        <v>0.3306386432730761</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.667062766071496</v>
+        <v>2.448685659302356</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.29598764991286</v>
+        <v>0.406330238239093</v>
       </c>
       <c r="C15">
-        <v>0.2207507365073127</v>
+        <v>0.07148766892129288</v>
       </c>
       <c r="D15">
-        <v>0.09332046079614997</v>
+        <v>0.04152990338582185</v>
       </c>
       <c r="E15">
-        <v>0.5512308919880624</v>
+        <v>0.2177741131480886</v>
       </c>
       <c r="F15">
-        <v>0.6259759427292906</v>
+        <v>0.7291905755645089</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.2861046602727555</v>
+        <v>0.5400599214475541</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.433286900897713</v>
+        <v>0.438798786581998</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9843063338183669</v>
+        <v>0.3275196755406569</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.658897154443366</v>
+        <v>2.4488170155646</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.215279936601121</v>
+        <v>0.3817648855555831</v>
       </c>
       <c r="C16">
-        <v>0.20802915048057</v>
+        <v>0.06755044540850008</v>
       </c>
       <c r="D16">
-        <v>0.08861139919819294</v>
+        <v>0.03991588988633765</v>
       </c>
       <c r="E16">
-        <v>0.5138954728010532</v>
+        <v>0.2087976268839071</v>
       </c>
       <c r="F16">
-        <v>0.6009277406891087</v>
+        <v>0.7264276455719454</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,25 +1100,25 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2842132018128716</v>
+        <v>0.542348318261979</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.34514257606574</v>
+        <v>0.4118261948931661</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9187147658278221</v>
+        <v>0.3096674422559502</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.613646496875333</v>
+        <v>2.450029059170419</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.1658702566844</v>
+        <v>0.3666834462306952</v>
       </c>
       <c r="C17">
-        <v>0.2002435062938162</v>
+        <v>0.06512959343974956</v>
       </c>
       <c r="D17">
-        <v>0.08572185682908895</v>
+        <v>0.03892242157712644</v>
       </c>
       <c r="E17">
-        <v>0.4912879183365604</v>
+        <v>0.2033252420598117</v>
       </c>
       <c r="F17">
-        <v>0.5859849866699065</v>
+        <v>0.7248578823874539</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,25 +1147,25 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2833123364174668</v>
+        <v>0.5438386677224756</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.291181466601472</v>
+        <v>0.395260498691556</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8787497314552937</v>
+        <v>0.2987346857489257</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.587212983347911</v>
+        <v>2.451182160968727</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.137484406104477</v>
+        <v>0.3580049731122585</v>
       </c>
       <c r="C18">
-        <v>0.1957714293030364</v>
+        <v>0.0637351815080649</v>
       </c>
       <c r="D18">
-        <v>0.08405948512812245</v>
+        <v>0.03834979454724419</v>
       </c>
       <c r="E18">
-        <v>0.4783866160881516</v>
+        <v>0.2001902361395054</v>
       </c>
       <c r="F18">
-        <v>0.5775393995429141</v>
+        <v>0.7240009859789964</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,25 +1194,25 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2828861224238111</v>
+        <v>0.5447276382183261</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.260181082916063</v>
+        <v>0.3857255682303276</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8558559753173043</v>
+        <v>0.2924534377089856</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.572476994660349</v>
+        <v>2.451995790778938</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.127878779739149</v>
+        <v>0.3550659144170822</v>
       </c>
       <c r="C19">
-        <v>0.1942582184859134</v>
+        <v>0.06326271534358341</v>
       </c>
       <c r="D19">
-        <v>0.08349655668551748</v>
+        <v>0.03815570604052709</v>
       </c>
       <c r="E19">
-        <v>0.4740353256787628</v>
+        <v>0.1991309278267153</v>
       </c>
       <c r="F19">
-        <v>0.5747048704774116</v>
+        <v>0.7237187522338289</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2827572887033796</v>
+        <v>0.5450340809793843</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.249690737172756</v>
+        <v>0.3824960553072003</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8481198520808988</v>
+        <v>0.2903279144329716</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.567566195377395</v>
+        <v>2.452297091812142</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.171126464342649</v>
+        <v>0.3682893116560138</v>
       </c>
       <c r="C20">
-        <v>0.201071660123219</v>
+        <v>0.06538750483291267</v>
       </c>
       <c r="D20">
-        <v>0.08602949032282936</v>
+        <v>0.03902830348705777</v>
       </c>
       <c r="E20">
-        <v>0.4936838238098744</v>
+        <v>0.2039064846068115</v>
       </c>
       <c r="F20">
-        <v>0.5875600933710814</v>
+        <v>0.7250202260695957</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2833986440540137</v>
+        <v>0.5436767297858829</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.296921823975907</v>
+        <v>0.3970246506636101</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8829942826476653</v>
+        <v>0.2998977734480164</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.589978021482324</v>
+        <v>2.451043843320463</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.316859785601167</v>
+        <v>0.4126688790663593</v>
       </c>
       <c r="C21">
-        <v>0.2240416604944926</v>
+        <v>0.07250247087941375</v>
       </c>
       <c r="D21">
-        <v>0.09453614642947628</v>
+        <v>0.04194557358007245</v>
       </c>
       <c r="E21">
-        <v>0.5609677390224945</v>
+        <v>0.2201023624359166</v>
       </c>
       <c r="F21">
-        <v>0.6325793202023675</v>
+        <v>0.729942636401411</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2866760881094095</v>
+        <v>0.5394958623971284</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.45608283486996</v>
+        <v>0.4457566109228139</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.001331460527489</v>
+        <v>0.3321346500795528</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.671006427008479</v>
+        <v>2.44863079895876</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.412492115916791</v>
+        <v>0.4416342682096968</v>
       </c>
       <c r="C22">
-        <v>0.2391256479720028</v>
+        <v>0.07713433162842875</v>
       </c>
       <c r="D22">
-        <v>0.1000951948610407</v>
+        <v>0.04384116759127465</v>
       </c>
       <c r="E22">
-        <v>0.6060031159296955</v>
+        <v>0.2308008174481984</v>
       </c>
       <c r="F22">
-        <v>0.6634724113329185</v>
+        <v>0.7335697260520391</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,25 +1382,25 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.2897113787245083</v>
+        <v>0.537046774560082</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.560533734033186</v>
+        <v>0.4775419941501866</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.079661337680761</v>
+        <v>0.35326554775191</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.728555926557959</v>
+        <v>2.44839539055522</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.361411310937285</v>
+        <v>0.4261786458274344</v>
       </c>
       <c r="C23">
-        <v>0.2310675485802562</v>
+        <v>0.07466390100887565</v>
       </c>
       <c r="D23">
-        <v>0.09712813016848543</v>
+        <v>0.04283047211076507</v>
       </c>
       <c r="E23">
-        <v>0.5818619391003779</v>
+        <v>0.2250803857137242</v>
       </c>
       <c r="F23">
-        <v>0.6468424175049279</v>
+        <v>0.7315963412948605</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,25 +1429,25 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.2880058765030178</v>
+        <v>0.5383279469126201</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.504741705546394</v>
+        <v>0.4605835357411081</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.037756463926073</v>
+        <v>0.3419818934948538</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.697398839339485</v>
+        <v>2.448398155226812</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.168750070195443</v>
+        <v>0.3675633246329539</v>
       </c>
       <c r="C24">
-        <v>0.2006972395330564</v>
+        <v>0.06527091128744189</v>
       </c>
       <c r="D24">
-        <v>0.08589041278739984</v>
+        <v>0.03898043884796465</v>
       </c>
       <c r="E24">
-        <v>0.4926003373214272</v>
+        <v>0.2036436701688231</v>
       </c>
       <c r="F24">
-        <v>0.5868475369048696</v>
+        <v>0.724946688512297</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,25 +1476,25 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2833593395350107</v>
+        <v>0.543749841789996</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.294326539204263</v>
+        <v>0.3962271120681464</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8810750652725474</v>
+        <v>0.2993719286098013</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.58872651646422</v>
+        <v>2.451105907339979</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9621612321994064</v>
+        <v>0.3041849854037935</v>
       </c>
       <c r="C25">
-        <v>0.1681591986478423</v>
+        <v>0.05506269063798186</v>
       </c>
       <c r="D25">
-        <v>0.07375261062031058</v>
+        <v>0.0347814059239866</v>
       </c>
       <c r="E25">
-        <v>0.4001413154046034</v>
+        <v>0.181000031485965</v>
       </c>
       <c r="F25">
-        <v>0.5277619872188595</v>
+        <v>0.7195318920116591</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,25 +1523,25 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2818251905866767</v>
+        <v>0.5508122023643551</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.068708114589015</v>
+        <v>0.3265508511610449</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7155485201833827</v>
+        <v>0.2536770058463276</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.489181416873635</v>
+        <v>2.459775065628975</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_92/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_92/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2573958041829485</v>
+        <v>0.8106344575418802</v>
       </c>
       <c r="C2">
-        <v>0.04748089165519787</v>
+        <v>0.1442997653449964</v>
       </c>
       <c r="D2">
-        <v>0.03165052555380043</v>
+        <v>0.06478587521080215</v>
       </c>
       <c r="E2">
-        <v>0.1647267180267775</v>
+        <v>0.3346069581480435</v>
       </c>
       <c r="F2">
-        <v>0.7170521533020491</v>
+        <v>0.4883944379069547</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,25 +442,25 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5570539027569694</v>
+        <v>0.283324073815109</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2750332023945532</v>
+        <v>0.9032083157732984</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2202528939603283</v>
+        <v>0.5958672098962694</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.47108682482488</v>
+        <v>1.429004397062982</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2256133626909502</v>
+        <v>0.7080954586723465</v>
       </c>
       <c r="C3">
-        <v>0.04230195993055474</v>
+        <v>0.1281501674127128</v>
       </c>
       <c r="D3">
-        <v>0.02950460241036978</v>
+        <v>0.05868340956607199</v>
       </c>
       <c r="E3">
-        <v>0.1539407558026511</v>
+        <v>0.2914463619981547</v>
       </c>
       <c r="F3">
-        <v>0.7163095727575524</v>
+        <v>0.4639746625625776</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,25 +489,25 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5619326161867093</v>
+        <v>0.2858142966784456</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2399888997756108</v>
+        <v>0.7911944337375587</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.1977350549761994</v>
+        <v>0.5157696186092195</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.48182013221161</v>
+        <v>1.395457382034209</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2060647825605599</v>
+        <v>0.645147977839116</v>
       </c>
       <c r="C4">
-        <v>0.03910215581566945</v>
+        <v>0.1182319794960165</v>
       </c>
       <c r="D4">
-        <v>0.02817525147519007</v>
+        <v>0.05492176220435141</v>
       </c>
       <c r="E4">
-        <v>0.1474358730611982</v>
+        <v>0.2654630942990295</v>
       </c>
       <c r="F4">
-        <v>0.7163156781840101</v>
+        <v>0.4499975487051984</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,25 +536,25 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5652477437201071</v>
+        <v>0.2880199145762461</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2184091649826883</v>
+        <v>0.7224180744164101</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1839742000649309</v>
+        <v>0.466980725951899</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.489921163682126</v>
+        <v>1.37813888515339</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1980904729067561</v>
+        <v>0.6194909984938874</v>
       </c>
       <c r="C5">
-        <v>0.03779324701719133</v>
+        <v>0.1141880377864339</v>
       </c>
       <c r="D5">
-        <v>0.02763060759723857</v>
+        <v>0.05338490168131926</v>
       </c>
       <c r="E5">
-        <v>0.1448144618964307</v>
+        <v>0.2549910160279012</v>
       </c>
       <c r="F5">
-        <v>0.7164343057102371</v>
+        <v>0.4445437462667456</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,25 +583,25 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5666789925480202</v>
+        <v>0.2890817324957666</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.209600014440511</v>
+        <v>0.6943817810372934</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1783829147458462</v>
+        <v>0.4471825752448666</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.493602034970607</v>
+        <v>1.37186561113613</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1967658687569269</v>
+        <v>0.6152301177973243</v>
       </c>
       <c r="C6">
-        <v>0.03757560534639026</v>
+        <v>0.1135163658494065</v>
       </c>
       <c r="D6">
-        <v>0.02753999429141629</v>
+        <v>0.05312946082099046</v>
       </c>
       <c r="E6">
-        <v>0.1443809465395418</v>
+        <v>0.2532587717790733</v>
       </c>
       <c r="F6">
-        <v>0.7164610168747743</v>
+        <v>0.4436523746383756</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,25 +630,25 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5669214991463178</v>
+        <v>0.2892676901797202</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2081363550997395</v>
+        <v>0.6897255428466877</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1774554746049688</v>
+        <v>0.4438997504323083</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.494236162507875</v>
+        <v>1.370870154022001</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.205957270444344</v>
+        <v>0.6448019912621419</v>
       </c>
       <c r="C7">
-        <v>0.0390845234457089</v>
+        <v>0.1181774524682027</v>
       </c>
       <c r="D7">
-        <v>0.02816791801008378</v>
+        <v>0.0549010519251425</v>
       </c>
       <c r="E7">
-        <v>0.1474004011274275</v>
+        <v>0.26532141091554</v>
       </c>
       <c r="F7">
-        <v>0.7163168078560176</v>
+        <v>0.4499230346167522</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,25 +677,25 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5652667209518363</v>
+        <v>0.2880335837642107</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2182904227716733</v>
+        <v>0.722040017257882</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.183898727756663</v>
+        <v>0.4667134009952392</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.489969268410391</v>
+        <v>1.378051158616529</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2464445435215623</v>
+        <v>0.775271326821354</v>
       </c>
       <c r="C8">
-        <v>0.04569935633921318</v>
+        <v>0.1387308376947516</v>
       </c>
       <c r="D8">
-        <v>0.03091306692999041</v>
+        <v>0.06268463395626611</v>
       </c>
       <c r="E8">
-        <v>0.1609831416518759</v>
+        <v>0.3196091913968928</v>
       </c>
       <c r="F8">
-        <v>0.7167001816052831</v>
+        <v>0.4797550249862184</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,25 +724,25 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5586697228257513</v>
+        <v>0.2840378713905913</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2629631383053095</v>
+        <v>0.8645798545744015</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2124751952889241</v>
+        <v>0.5681592060076852</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.47447396015481</v>
+        <v>1.416731692892625</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3255538798997577</v>
+        <v>1.031630476976801</v>
       </c>
       <c r="C9">
-        <v>0.0585115465522108</v>
+        <v>0.1790986287225564</v>
       </c>
       <c r="D9">
-        <v>0.03620197935646985</v>
+        <v>0.07784486549473257</v>
       </c>
       <c r="E9">
-        <v>0.1885647269041755</v>
+        <v>0.4308441623087234</v>
       </c>
       <c r="F9">
-        <v>0.7211214530595029</v>
+        <v>0.54697755088241</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,25 +771,25 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5482712584070732</v>
+        <v>0.2819105364855616</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3500553480227211</v>
+        <v>1.144577412892858</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2690345788772603</v>
+        <v>0.7709149567945275</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.456088234992507</v>
+        <v>1.520542916039318</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3834852254437351</v>
+        <v>1.220922732932451</v>
       </c>
       <c r="C10">
-        <v>0.06782640898630632</v>
+        <v>0.2089184216001598</v>
       </c>
       <c r="D10">
-        <v>0.04002908673394501</v>
+        <v>0.08894107354151259</v>
       </c>
       <c r="E10">
-        <v>0.209423772210684</v>
+        <v>0.5164894690279667</v>
       </c>
       <c r="F10">
-        <v>0.7266129998833364</v>
+        <v>0.6026534837946471</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,25 +818,25 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5421825645107212</v>
+        <v>0.2843286997649273</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4137155257720053</v>
+        <v>1.351305216095938</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3109158923864612</v>
+        <v>0.9232881916636657</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.449917869584255</v>
+        <v>1.616727541132491</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4097953787275515</v>
+        <v>1.307395377769637</v>
       </c>
       <c r="C11">
-        <v>0.07204248513632194</v>
+        <v>0.2225493498464601</v>
       </c>
       <c r="D11">
-        <v>0.04175717666011991</v>
+        <v>0.09398500528401144</v>
       </c>
       <c r="E11">
-        <v>0.2190463014861095</v>
+        <v>0.5565484736793991</v>
       </c>
       <c r="F11">
-        <v>0.7295997812107515</v>
+        <v>0.6295787500698253</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.5397502699874579</v>
+        <v>0.2864128588936374</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4426025116471521</v>
+        <v>1.445746051884385</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3300421186969089</v>
+        <v>0.9936083140542209</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.44870900046152</v>
+        <v>1.665495134383633</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4197517723564204</v>
+        <v>1.340205944143321</v>
       </c>
       <c r="C12">
-        <v>0.07363590661043418</v>
+        <v>0.2277231618549393</v>
       </c>
       <c r="D12">
-        <v>0.04240968049538907</v>
+        <v>0.09589490249292254</v>
       </c>
       <c r="E12">
-        <v>0.2227096001106261</v>
+        <v>0.571898048020806</v>
       </c>
       <c r="F12">
-        <v>0.7308011475503307</v>
+        <v>0.640025198024972</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,25 +912,25 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.5388778192227974</v>
+        <v>0.2873543811212578</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4535304850826378</v>
+        <v>1.481581169409708</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.337295482299254</v>
+        <v>1.020404718078431</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.448481378540038</v>
+        <v>1.684744814615868</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4176077902124007</v>
+        <v>1.333136479744155</v>
       </c>
       <c r="C13">
-        <v>0.07329287415457486</v>
+        <v>0.2266083076984273</v>
       </c>
       <c r="D13">
-        <v>0.04226923655649273</v>
+        <v>0.09548357079801661</v>
       </c>
       <c r="E13">
-        <v>0.221919774128267</v>
+        <v>0.5685838594824304</v>
       </c>
       <c r="F13">
-        <v>0.7305392824520993</v>
+        <v>0.6377638853485053</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,25 +959,25 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.5390635541027606</v>
+        <v>0.2871446538013771</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4511774432108382</v>
+        <v>1.473859962901344</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.335732865720793</v>
+        <v>1.014625783990589</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.448520159407053</v>
+        <v>1.680563220549971</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4106146341191845</v>
+        <v>1.310093336309279</v>
       </c>
       <c r="C14">
-        <v>0.07217363960657508</v>
+        <v>0.222974744663631</v>
       </c>
       <c r="D14">
-        <v>0.04181089654310455</v>
+        <v>0.09414213379643854</v>
       </c>
       <c r="E14">
-        <v>0.219347291987475</v>
+        <v>0.5578075493031562</v>
       </c>
       <c r="F14">
-        <v>0.7296972082863675</v>
+        <v>0.630433042876632</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,25 +1006,25 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.5396775183547504</v>
+        <v>0.286487201646338</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4435017839175828</v>
+        <v>1.448692686903058</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3306386432730761</v>
+        <v>0.9958093694778043</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.448685659302356</v>
+        <v>1.667062766071496</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.406330238239093</v>
+        <v>1.295987649912774</v>
       </c>
       <c r="C15">
-        <v>0.07148766892129288</v>
+        <v>0.2207507365071564</v>
       </c>
       <c r="D15">
-        <v>0.04152990338582185</v>
+        <v>0.09332046079609313</v>
       </c>
       <c r="E15">
-        <v>0.2177741131480886</v>
+        <v>0.5512308919880695</v>
       </c>
       <c r="F15">
-        <v>0.7291905755645089</v>
+        <v>0.6259759427293048</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5400599214475541</v>
+        <v>0.2861046602727484</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.438798786581998</v>
+        <v>1.433286900897599</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3275196755406569</v>
+        <v>0.984306333818374</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.4488170155646</v>
+        <v>1.658897154443309</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3817648855555831</v>
+        <v>1.215279936601121</v>
       </c>
       <c r="C16">
-        <v>0.06755044540850008</v>
+        <v>0.208029150481039</v>
       </c>
       <c r="D16">
-        <v>0.03991588988633765</v>
+        <v>0.08861139919820715</v>
       </c>
       <c r="E16">
-        <v>0.2087976268839071</v>
+        <v>0.5138954728010674</v>
       </c>
       <c r="F16">
-        <v>0.7264276455719454</v>
+        <v>0.6009277406891087</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,25 +1100,25 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.542348318261979</v>
+        <v>0.2842132018128574</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4118261948931661</v>
+        <v>1.345142576065797</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3096674422559502</v>
+        <v>0.9187147658278221</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.450029059170419</v>
+        <v>1.61364649687539</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3666834462306952</v>
+        <v>1.165870256684229</v>
       </c>
       <c r="C17">
-        <v>0.06512959343974956</v>
+        <v>0.2002435062935461</v>
       </c>
       <c r="D17">
-        <v>0.03892242157712644</v>
+        <v>0.08572185682925237</v>
       </c>
       <c r="E17">
-        <v>0.2033252420598117</v>
+        <v>0.4912879183365604</v>
       </c>
       <c r="F17">
-        <v>0.7248578823874539</v>
+        <v>0.5859849866699065</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,25 +1147,25 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.5438386677224756</v>
+        <v>0.2833123364174597</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.395260498691556</v>
+        <v>1.291181466601614</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.2987346857489257</v>
+        <v>0.8787497314553079</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.451182160968727</v>
+        <v>1.587212983347996</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3580049731122585</v>
+        <v>1.137484406104619</v>
       </c>
       <c r="C18">
-        <v>0.0637351815080649</v>
+        <v>0.195771429303278</v>
       </c>
       <c r="D18">
-        <v>0.03834979454724419</v>
+        <v>0.08405948512812245</v>
       </c>
       <c r="E18">
-        <v>0.2001902361395054</v>
+        <v>0.4783866160881516</v>
       </c>
       <c r="F18">
-        <v>0.7240009859789964</v>
+        <v>0.5775393995429283</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,25 +1194,25 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5447276382183261</v>
+        <v>0.282886122423804</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3857255682303276</v>
+        <v>1.260181082916034</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2924534377089856</v>
+        <v>0.8558559753173114</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.451995790778938</v>
+        <v>1.57247699466032</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3550659144170822</v>
+        <v>1.127878779739177</v>
       </c>
       <c r="C19">
-        <v>0.06326271534358341</v>
+        <v>0.1942582184859276</v>
       </c>
       <c r="D19">
-        <v>0.03815570604052709</v>
+        <v>0.08349655668549616</v>
       </c>
       <c r="E19">
-        <v>0.1991309278267153</v>
+        <v>0.4740353256787699</v>
       </c>
       <c r="F19">
-        <v>0.7237187522338289</v>
+        <v>0.5747048704774116</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5450340809793843</v>
+        <v>0.2827572887033902</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3824960553072003</v>
+        <v>1.24969073717287</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2903279144329716</v>
+        <v>0.8481198520809059</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.452297091812142</v>
+        <v>1.567566195377367</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3682893116560138</v>
+        <v>1.171126464342706</v>
       </c>
       <c r="C20">
-        <v>0.06538750483291267</v>
+        <v>0.2010716601229774</v>
       </c>
       <c r="D20">
-        <v>0.03902830348705777</v>
+        <v>0.0860294903226162</v>
       </c>
       <c r="E20">
-        <v>0.2039064846068115</v>
+        <v>0.4936838238098815</v>
       </c>
       <c r="F20">
-        <v>0.7250202260695957</v>
+        <v>0.5875600933710814</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5436767297858829</v>
+        <v>0.2833986440540315</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3970246506636101</v>
+        <v>1.296921823975765</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.2998977734480164</v>
+        <v>0.8829942826476866</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.451043843320463</v>
+        <v>1.589978021482352</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4126688790663593</v>
+        <v>1.316859785600968</v>
       </c>
       <c r="C21">
-        <v>0.07250247087941375</v>
+        <v>0.224041660494251</v>
       </c>
       <c r="D21">
-        <v>0.04194557358007245</v>
+        <v>0.09453614642969654</v>
       </c>
       <c r="E21">
-        <v>0.2201023624359166</v>
+        <v>0.5609677390225016</v>
       </c>
       <c r="F21">
-        <v>0.729942636401411</v>
+        <v>0.6325793202023675</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.5394958623971284</v>
+        <v>0.2866760881094201</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4457566109228139</v>
+        <v>1.456082834869932</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3321346500795528</v>
+        <v>1.001331460527481</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.44863079895876</v>
+        <v>1.671006427008535</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4416342682096968</v>
+        <v>1.412492115916848</v>
       </c>
       <c r="C22">
-        <v>0.07713433162842875</v>
+        <v>0.2391256479717754</v>
       </c>
       <c r="D22">
-        <v>0.04384116759127465</v>
+        <v>0.1000951948609199</v>
       </c>
       <c r="E22">
-        <v>0.2308008174481984</v>
+        <v>0.6060031159297097</v>
       </c>
       <c r="F22">
-        <v>0.7335697260520391</v>
+        <v>0.6634724113329185</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,25 +1382,25 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.537046774560082</v>
+        <v>0.2897113787245225</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4775419941501866</v>
+        <v>1.560533734033129</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.35326554775191</v>
+        <v>1.079661337680776</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.44839539055522</v>
+        <v>1.728555926557931</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4261786458274344</v>
+        <v>1.361411310937314</v>
       </c>
       <c r="C23">
-        <v>0.07466390100887565</v>
+        <v>0.231067548580242</v>
       </c>
       <c r="D23">
-        <v>0.04283047211076507</v>
+        <v>0.09712813016847122</v>
       </c>
       <c r="E23">
-        <v>0.2250803857137242</v>
+        <v>0.5818619391002926</v>
       </c>
       <c r="F23">
-        <v>0.7315963412948605</v>
+        <v>0.6468424175049492</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,25 +1429,25 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.5383279469126201</v>
+        <v>0.2880058765030249</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4605835357411081</v>
+        <v>1.504741705546593</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3419818934948538</v>
+        <v>1.037756463926065</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.448398155226812</v>
+        <v>1.69739883933957</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3675633246329539</v>
+        <v>1.168750070195642</v>
       </c>
       <c r="C24">
-        <v>0.06527091128744189</v>
+        <v>0.2006972395330564</v>
       </c>
       <c r="D24">
-        <v>0.03898043884796465</v>
+        <v>0.085890412787613</v>
       </c>
       <c r="E24">
-        <v>0.2036436701688231</v>
+        <v>0.4926003373214272</v>
       </c>
       <c r="F24">
-        <v>0.724946688512297</v>
+        <v>0.5868475369048696</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,25 +1476,25 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.543749841789996</v>
+        <v>0.2833593395350213</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3962271120681464</v>
+        <v>1.294326539204235</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.2993719286098013</v>
+        <v>0.8810750652725474</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.451105907339979</v>
+        <v>1.58872651646422</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3041849854037935</v>
+        <v>0.9621612321995201</v>
       </c>
       <c r="C25">
-        <v>0.05506269063798186</v>
+        <v>0.1681591986476008</v>
       </c>
       <c r="D25">
-        <v>0.0347814059239866</v>
+        <v>0.07375261062043137</v>
       </c>
       <c r="E25">
-        <v>0.181000031485965</v>
+        <v>0.4001413154046105</v>
       </c>
       <c r="F25">
-        <v>0.7195318920116591</v>
+        <v>0.5277619872188737</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,25 +1523,25 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5508122023643551</v>
+        <v>0.2818251905866944</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3265508511610449</v>
+        <v>1.068708114588816</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2536770058463276</v>
+        <v>0.7155485201833827</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.459775065628975</v>
+        <v>1.489181416873578</v>
       </c>
     </row>
   </sheetData>
